--- a/project2-building-a-dimensional-data-warehouse/guide_workbook.xlsx
+++ b/project2-building-a-dimensional-data-warehouse/guide_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdurrahim/Documents/workspace/Github/data-engineering-portfolio/project2-building-a-dimensional-data-warehouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BAC7AF-6051-B54C-B6BB-42C6F5ED05F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C07C8-58F0-5144-8F12-D4FF81F68CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BusMatrix-HighLevelEntites-(Tem" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11906" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11906" uniqueCount="274">
   <si>
     <t>Business Process</t>
   </si>
@@ -903,6 +903,9 @@
   <si>
     <t>source</t>
   </si>
+  <si>
+    <t>POSTGRES</t>
+  </si>
 </sst>
 </file>
 
@@ -1467,7 +1470,9 @@
   </sheetPr>
   <dimension ref="A1:P190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J87" sqref="J87:J94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5089,7 +5094,9 @@
   </sheetPr>
   <dimension ref="A1:AF208"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5197,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>209</v>
@@ -5219,7 +5226,7 @@
         <v>id,</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>53</v>
@@ -5242,7 +5249,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>209</v>
@@ -5261,7 +5268,7 @@
         <v>company,</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>53</v>
@@ -5282,7 +5289,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>209</v>
@@ -5301,7 +5308,7 @@
         <v>last_name,</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>53</v>
@@ -5322,7 +5329,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>209</v>
@@ -5341,7 +5348,7 @@
         <v>first_name,</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>53</v>
@@ -5362,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>209</v>
@@ -5381,7 +5388,7 @@
         <v>email_address,</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>53</v>
@@ -5402,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>209</v>
@@ -5421,7 +5428,7 @@
         <v>job_title,</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>53</v>
@@ -5442,7 +5449,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>209</v>
@@ -5461,7 +5468,7 @@
         <v>business_phone,</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>53</v>
@@ -5482,7 +5489,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>209</v>
@@ -5501,7 +5508,7 @@
         <v>home_phone,</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>53</v>
@@ -5522,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>209</v>
@@ -5541,7 +5548,7 @@
         <v>mobile_phone,</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>53</v>
@@ -5562,7 +5569,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>209</v>
@@ -5581,7 +5588,7 @@
         <v>fax_number,</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>53</v>
@@ -5602,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>209</v>
@@ -5621,7 +5628,7 @@
         <v>address,</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>53</v>
@@ -5642,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>209</v>
@@ -5661,7 +5668,7 @@
         <v>city,</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>53</v>
@@ -5682,7 +5689,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>209</v>
@@ -5701,7 +5708,7 @@
         <v>state_province,</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>53</v>
@@ -5722,7 +5729,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>209</v>
@@ -5741,7 +5748,7 @@
         <v>zip_postal_code,</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>53</v>
@@ -5762,7 +5769,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>209</v>
@@ -5781,7 +5788,7 @@
         <v>country_region,</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>53</v>
@@ -5802,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>209</v>
@@ -5821,7 +5828,7 @@
         <v>web_page,</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>53</v>
@@ -5842,7 +5849,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>209</v>
@@ -5861,7 +5868,7 @@
         <v>notes,</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>53</v>
@@ -5882,7 +5889,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>209</v>
@@ -5901,7 +5908,7 @@
         <v>attachments,</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>53</v>
@@ -5922,7 +5929,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>209</v>
@@ -5941,7 +5948,7 @@
         <v>insertion_timestamp,</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>53</v>
@@ -6000,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>209</v>
@@ -6015,7 +6022,7 @@
         <v>55</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>53</v>
@@ -6036,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>209</v>
@@ -6051,7 +6058,7 @@
         <v>62</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>53</v>
@@ -6072,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>209</v>
@@ -6087,7 +6094,7 @@
         <v>62</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>53</v>
@@ -6108,7 +6115,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>209</v>
@@ -6123,7 +6130,7 @@
         <v>62</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>53</v>
@@ -6144,7 +6151,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>209</v>
@@ -6159,7 +6166,7 @@
         <v>62</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>53</v>
@@ -6180,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>209</v>
@@ -6195,7 +6202,7 @@
         <v>62</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>53</v>
@@ -6216,7 +6223,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>209</v>
@@ -6231,7 +6238,7 @@
         <v>62</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>53</v>
@@ -6252,7 +6259,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>209</v>
@@ -6267,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>53</v>
@@ -6288,7 +6295,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>209</v>
@@ -6303,7 +6310,7 @@
         <v>62</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>53</v>
@@ -6324,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>209</v>
@@ -6339,7 +6346,7 @@
         <v>62</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>53</v>
@@ -6360,7 +6367,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>209</v>
@@ -6375,7 +6382,7 @@
         <v>62</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>53</v>
@@ -6396,7 +6403,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>209</v>
@@ -6411,7 +6418,7 @@
         <v>62</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>53</v>
@@ -6432,7 +6439,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>209</v>
@@ -6447,7 +6454,7 @@
         <v>62</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>53</v>
@@ -6468,7 +6475,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>209</v>
@@ -6483,7 +6490,7 @@
         <v>62</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>53</v>
@@ -6504,7 +6511,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>209</v>
@@ -6519,7 +6526,7 @@
         <v>62</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>53</v>
@@ -6540,7 +6547,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>209</v>
@@ -6555,7 +6562,7 @@
         <v>62</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>53</v>
@@ -6576,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>209</v>
@@ -6591,7 +6598,7 @@
         <v>62</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>53</v>
@@ -6612,7 +6619,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>209</v>
@@ -6627,7 +6634,7 @@
         <v>62</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>53</v>
@@ -6648,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>209</v>
@@ -6664,7 +6671,7 @@
       </c>
       <c r="G42" s="19"/>
       <c r="J42" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>53</v>
@@ -6723,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>209</v>
@@ -6738,7 +6745,7 @@
         <v>55</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>53</v>
@@ -6759,7 +6766,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>209</v>
@@ -6774,7 +6781,7 @@
         <v>62</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>53</v>
@@ -6795,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>209</v>
@@ -6811,7 +6818,7 @@
       </c>
       <c r="G46" s="19"/>
       <c r="J46" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>53</v>
@@ -6870,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>209</v>
@@ -6885,7 +6892,7 @@
         <v>55</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>53</v>
@@ -6905,7 +6912,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>209</v>
@@ -6920,7 +6927,7 @@
         <v>55</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>53</v>
@@ -6940,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>209</v>
@@ -6956,7 +6963,7 @@
       </c>
       <c r="G50" s="19"/>
       <c r="J50" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>53</v>
@@ -7015,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>209</v>
@@ -7030,7 +7037,7 @@
         <v>55</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K52" s="19" t="s">
         <v>53</v>
@@ -7050,7 +7057,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>209</v>
@@ -7065,7 +7072,7 @@
         <v>62</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>53</v>
@@ -7085,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>209</v>
@@ -7101,7 +7108,7 @@
       </c>
       <c r="G54" s="19"/>
       <c r="J54" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K54" s="19" t="s">
         <v>53</v>
@@ -7160,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>209</v>
@@ -7175,7 +7182,7 @@
         <v>55</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K56" s="19" t="s">
         <v>53</v>
@@ -7195,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>209</v>
@@ -7210,7 +7217,7 @@
         <v>62</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K57" s="19" t="s">
         <v>53</v>
@@ -7230,7 +7237,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>209</v>
@@ -7245,7 +7252,7 @@
         <v>62</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>53</v>
@@ -7265,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>209</v>
@@ -7280,7 +7287,7 @@
         <v>62</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K59" s="19" t="s">
         <v>53</v>
@@ -7300,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>209</v>
@@ -7315,7 +7322,7 @@
         <v>62</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K60" s="19" t="s">
         <v>53</v>
@@ -7335,7 +7342,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>209</v>
@@ -7350,7 +7357,7 @@
         <v>62</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K61" s="19" t="s">
         <v>53</v>
@@ -7370,7 +7377,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>209</v>
@@ -7385,7 +7392,7 @@
         <v>62</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>53</v>
@@ -7405,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>209</v>
@@ -7420,7 +7427,7 @@
         <v>62</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K63" s="19" t="s">
         <v>53</v>
@@ -7440,7 +7447,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>209</v>
@@ -7455,7 +7462,7 @@
         <v>62</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>53</v>
@@ -7475,7 +7482,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>209</v>
@@ -7490,7 +7497,7 @@
         <v>62</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>53</v>
@@ -7510,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>209</v>
@@ -7525,7 +7532,7 @@
         <v>62</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K66" s="19" t="s">
         <v>53</v>
@@ -7545,7 +7552,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>209</v>
@@ -7560,7 +7567,7 @@
         <v>62</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>53</v>
@@ -7580,7 +7587,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>209</v>
@@ -7595,7 +7602,7 @@
         <v>62</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>53</v>
@@ -7615,7 +7622,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>209</v>
@@ -7630,7 +7637,7 @@
         <v>62</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K69" s="19" t="s">
         <v>53</v>
@@ -7650,7 +7657,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>209</v>
@@ -7665,7 +7672,7 @@
         <v>62</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K70" s="19" t="s">
         <v>53</v>
@@ -7685,7 +7692,7 @@
         <v>16</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>209</v>
@@ -7700,7 +7707,7 @@
         <v>62</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K71" s="19" t="s">
         <v>53</v>
@@ -7720,7 +7727,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>209</v>
@@ -7735,7 +7742,7 @@
         <v>62</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K72" s="19" t="s">
         <v>53</v>
@@ -7755,7 +7762,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>209</v>
@@ -7770,7 +7777,7 @@
         <v>62</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K73" s="19" t="s">
         <v>53</v>
@@ -7790,7 +7797,7 @@
         <v>19</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>209</v>
@@ -7806,7 +7813,7 @@
       </c>
       <c r="G74" s="19"/>
       <c r="J74" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K74" s="19" t="s">
         <v>53</v>
@@ -7865,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>209</v>
@@ -7880,7 +7887,7 @@
         <v>55</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K76" s="19" t="s">
         <v>53</v>
@@ -7900,7 +7907,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>209</v>
@@ -7915,7 +7922,7 @@
         <v>62</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>53</v>
@@ -7935,7 +7942,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>209</v>
@@ -7951,7 +7958,7 @@
       </c>
       <c r="G78" s="19"/>
       <c r="J78" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K78" s="19" t="s">
         <v>53</v>
@@ -8010,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>209</v>
@@ -8025,7 +8032,7 @@
         <v>55</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K80" s="19" t="s">
         <v>53</v>
@@ -8045,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>209</v>
@@ -8060,7 +8067,7 @@
         <v>62</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>53</v>
@@ -8080,7 +8087,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>209</v>
@@ -8096,7 +8103,7 @@
       </c>
       <c r="G82" s="19"/>
       <c r="J82" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>53</v>
@@ -8155,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>209</v>
@@ -8170,7 +8177,7 @@
         <v>55</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K84" s="19" t="s">
         <v>53</v>
@@ -8190,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>209</v>
@@ -8205,7 +8212,7 @@
         <v>55</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>53</v>
@@ -8225,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>209</v>
@@ -8240,7 +8247,7 @@
         <v>55</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K86" s="19" t="s">
         <v>53</v>
@@ -8260,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>209</v>
@@ -8275,7 +8282,7 @@
         <v>125</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K87" s="19" t="s">
         <v>53</v>
@@ -8295,7 +8302,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>209</v>
@@ -8310,7 +8317,7 @@
         <v>125</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K88" s="19" t="s">
         <v>53</v>
@@ -8330,7 +8337,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>209</v>
@@ -8345,7 +8352,7 @@
         <v>55</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K89" s="19" t="s">
         <v>53</v>
@@ -8365,7 +8372,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>209</v>
@@ -8380,7 +8387,7 @@
         <v>62</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>53</v>
@@ -8400,7 +8407,7 @@
         <v>8</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>209</v>
@@ -8415,7 +8422,7 @@
         <v>62</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>53</v>
@@ -8435,7 +8442,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>209</v>
@@ -8450,7 +8457,7 @@
         <v>62</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K92" s="19" t="s">
         <v>53</v>
@@ -8470,7 +8477,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>209</v>
@@ -8485,7 +8492,7 @@
         <v>62</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>53</v>
@@ -8505,7 +8512,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>209</v>
@@ -8520,7 +8527,7 @@
         <v>62</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K94" s="19" t="s">
         <v>53</v>
@@ -8540,7 +8547,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>209</v>
@@ -8555,7 +8562,7 @@
         <v>62</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K95" s="19" t="s">
         <v>53</v>
@@ -8575,7 +8582,7 @@
         <v>13</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>209</v>
@@ -8590,7 +8597,7 @@
         <v>135</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>53</v>
@@ -8610,7 +8617,7 @@
         <v>14</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>209</v>
@@ -8625,7 +8632,7 @@
         <v>135</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>53</v>
@@ -8645,7 +8652,7 @@
         <v>15</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>209</v>
@@ -8660,7 +8667,7 @@
         <v>62</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>53</v>
@@ -8680,7 +8687,7 @@
         <v>16</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>209</v>
@@ -8695,7 +8702,7 @@
         <v>125</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>53</v>
@@ -8715,7 +8722,7 @@
         <v>17</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>209</v>
@@ -8730,7 +8737,7 @@
         <v>62</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>53</v>
@@ -8750,7 +8757,7 @@
         <v>18</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>209</v>
@@ -8765,7 +8772,7 @@
         <v>135</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K101" s="19" t="s">
         <v>53</v>
@@ -8785,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>209</v>
@@ -8800,7 +8807,7 @@
         <v>55</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K102" s="19" t="s">
         <v>53</v>
@@ -8820,7 +8827,7 @@
         <v>20</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>209</v>
@@ -8835,7 +8842,7 @@
         <v>55</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K103" s="19" t="s">
         <v>53</v>
@@ -8855,7 +8862,7 @@
         <v>21</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>209</v>
@@ -8871,7 +8878,7 @@
       </c>
       <c r="G104" s="19"/>
       <c r="J104" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K104" s="19" t="s">
         <v>53</v>
@@ -8930,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>209</v>
@@ -8945,7 +8952,7 @@
         <v>62</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K106" s="19" t="s">
         <v>53</v>
@@ -8965,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>209</v>
@@ -8980,7 +8987,7 @@
         <v>55</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K107" s="19" t="s">
         <v>53</v>
@@ -9000,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>209</v>
@@ -9015,7 +9022,7 @@
         <v>62</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K108" s="19" t="s">
         <v>53</v>
@@ -9035,7 +9042,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>209</v>
@@ -9050,7 +9057,7 @@
         <v>62</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K109" s="19" t="s">
         <v>53</v>
@@ -9070,7 +9077,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>209</v>
@@ -9085,7 +9092,7 @@
         <v>62</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K110" s="19" t="s">
         <v>53</v>
@@ -9105,7 +9112,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>209</v>
@@ -9120,7 +9127,7 @@
         <v>135</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K111" s="19" t="s">
         <v>53</v>
@@ -9140,7 +9147,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>209</v>
@@ -9155,7 +9162,7 @@
         <v>135</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K112" s="19" t="s">
         <v>53</v>
@@ -9175,7 +9182,7 @@
         <v>8</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>209</v>
@@ -9190,7 +9197,7 @@
         <v>55</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>53</v>
@@ -9210,7 +9217,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>209</v>
@@ -9225,7 +9232,7 @@
         <v>55</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>53</v>
@@ -9245,7 +9252,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>209</v>
@@ -9260,7 +9267,7 @@
         <v>62</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>53</v>
@@ -9280,7 +9287,7 @@
         <v>11</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>209</v>
@@ -9295,7 +9302,7 @@
         <v>55</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>53</v>
@@ -9315,7 +9322,7 @@
         <v>12</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>209</v>
@@ -9330,7 +9337,7 @@
         <v>55</v>
       </c>
       <c r="J117" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K117" s="19" t="s">
         <v>53</v>
@@ -9350,7 +9357,7 @@
         <v>13</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>209</v>
@@ -9365,7 +9372,7 @@
         <v>62</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K118" s="19" t="s">
         <v>53</v>
@@ -9385,7 +9392,7 @@
         <v>14</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>209</v>
@@ -9400,7 +9407,7 @@
         <v>62</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K119" s="19" t="s">
         <v>53</v>
@@ -9420,7 +9427,7 @@
         <v>15</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>209</v>
@@ -9436,7 +9443,7 @@
       </c>
       <c r="G120" s="19"/>
       <c r="J120" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K120" s="19" t="s">
         <v>53</v>
@@ -9495,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>209</v>
@@ -9510,7 +9517,7 @@
         <v>55</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>53</v>
@@ -9530,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>209</v>
@@ -9545,7 +9552,7 @@
         <v>62</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>53</v>
@@ -9565,7 +9572,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>209</v>
@@ -9581,7 +9588,7 @@
       </c>
       <c r="G124" s="19"/>
       <c r="J124" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K124" s="19" t="s">
         <v>53</v>
@@ -9640,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>209</v>
@@ -9655,7 +9662,7 @@
         <v>55</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>53</v>
@@ -9675,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>209</v>
@@ -9690,7 +9697,7 @@
         <v>62</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>53</v>
@@ -9710,7 +9717,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>209</v>
@@ -9725,7 +9732,7 @@
         <v>62</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>53</v>
@@ -9745,7 +9752,7 @@
         <v>4</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>209</v>
@@ -9760,7 +9767,7 @@
         <v>62</v>
       </c>
       <c r="J129" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>53</v>
@@ -9780,7 +9787,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>209</v>
@@ -9795,7 +9802,7 @@
         <v>62</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>53</v>
@@ -9815,7 +9822,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>209</v>
@@ -9830,7 +9837,7 @@
         <v>62</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K131" s="19" t="s">
         <v>53</v>
@@ -9850,7 +9857,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>209</v>
@@ -9865,7 +9872,7 @@
         <v>62</v>
       </c>
       <c r="J132" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K132" s="19" t="s">
         <v>53</v>
@@ -9885,7 +9892,7 @@
         <v>8</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>209</v>
@@ -9900,7 +9907,7 @@
         <v>62</v>
       </c>
       <c r="J133" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K133" s="19" t="s">
         <v>53</v>
@@ -9920,7 +9927,7 @@
         <v>9</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>209</v>
@@ -9935,7 +9942,7 @@
         <v>62</v>
       </c>
       <c r="J134" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K134" s="19" t="s">
         <v>53</v>
@@ -9955,7 +9962,7 @@
         <v>10</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>209</v>
@@ -9970,7 +9977,7 @@
         <v>62</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K135" s="19" t="s">
         <v>53</v>
@@ -9990,7 +9997,7 @@
         <v>11</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>209</v>
@@ -10005,7 +10012,7 @@
         <v>62</v>
       </c>
       <c r="J136" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K136" s="19" t="s">
         <v>53</v>
@@ -10025,7 +10032,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>209</v>
@@ -10040,7 +10047,7 @@
         <v>62</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>53</v>
@@ -10060,7 +10067,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>209</v>
@@ -10075,7 +10082,7 @@
         <v>62</v>
       </c>
       <c r="J138" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>53</v>
@@ -10095,7 +10102,7 @@
         <v>14</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>209</v>
@@ -10110,7 +10117,7 @@
         <v>62</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>53</v>
@@ -10130,7 +10137,7 @@
         <v>15</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>209</v>
@@ -10145,7 +10152,7 @@
         <v>62</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>53</v>
@@ -10165,7 +10172,7 @@
         <v>16</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>209</v>
@@ -10180,7 +10187,7 @@
         <v>62</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>53</v>
@@ -10200,7 +10207,7 @@
         <v>17</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>209</v>
@@ -10215,7 +10222,7 @@
         <v>62</v>
       </c>
       <c r="J142" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>53</v>
@@ -10235,7 +10242,7 @@
         <v>18</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>209</v>
@@ -10250,7 +10257,7 @@
         <v>62</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>53</v>
@@ -10270,7 +10277,7 @@
         <v>19</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>209</v>
@@ -10286,7 +10293,7 @@
       </c>
       <c r="G144" s="19"/>
       <c r="J144" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>53</v>
@@ -10345,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>209</v>
@@ -10360,7 +10367,7 @@
         <v>55</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>53</v>
@@ -10380,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>209</v>
@@ -10395,7 +10402,7 @@
         <v>55</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>53</v>
@@ -10415,7 +10422,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>209</v>
@@ -10430,7 +10437,7 @@
         <v>55</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>53</v>
@@ -10450,7 +10457,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>209</v>
@@ -10465,7 +10472,7 @@
         <v>125</v>
       </c>
       <c r="J149" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>53</v>
@@ -10485,7 +10492,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>209</v>
@@ -10500,7 +10507,7 @@
         <v>125</v>
       </c>
       <c r="J150" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K150" s="19" t="s">
         <v>53</v>
@@ -10520,7 +10527,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>209</v>
@@ -10535,7 +10542,7 @@
         <v>55</v>
       </c>
       <c r="J151" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K151" s="19" t="s">
         <v>53</v>
@@ -10555,7 +10562,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>209</v>
@@ -10570,7 +10577,7 @@
         <v>125</v>
       </c>
       <c r="J152" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K152" s="19" t="s">
         <v>53</v>
@@ -10590,7 +10597,7 @@
         <v>8</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>209</v>
@@ -10605,7 +10612,7 @@
         <v>135</v>
       </c>
       <c r="J153" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K153" s="19" t="s">
         <v>53</v>
@@ -10625,7 +10632,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>209</v>
@@ -10640,7 +10647,7 @@
         <v>135</v>
       </c>
       <c r="J154" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>53</v>
@@ -10660,7 +10667,7 @@
         <v>10</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>209</v>
@@ -10675,7 +10682,7 @@
         <v>125</v>
       </c>
       <c r="J155" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>53</v>
@@ -10695,7 +10702,7 @@
         <v>11</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>209</v>
@@ -10710,7 +10717,7 @@
         <v>135</v>
       </c>
       <c r="J156" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>53</v>
@@ -10730,7 +10737,7 @@
         <v>12</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>209</v>
@@ -10745,7 +10752,7 @@
         <v>62</v>
       </c>
       <c r="J157" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>53</v>
@@ -10765,7 +10772,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>209</v>
@@ -10780,7 +10787,7 @@
         <v>62</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>53</v>
@@ -10800,7 +10807,7 @@
         <v>14</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C159" s="19" t="s">
         <v>209</v>
@@ -10815,7 +10822,7 @@
         <v>55</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K159" s="19" t="s">
         <v>53</v>
@@ -10835,7 +10842,7 @@
         <v>15</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>209</v>
@@ -10850,7 +10857,7 @@
         <v>125</v>
       </c>
       <c r="J160" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K160" s="19" t="s">
         <v>53</v>
@@ -10870,7 +10877,7 @@
         <v>16</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>209</v>
@@ -10885,7 +10892,7 @@
         <v>55</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K161" s="19" t="s">
         <v>53</v>
@@ -10905,7 +10912,7 @@
         <v>17</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>209</v>
@@ -10921,7 +10928,7 @@
       </c>
       <c r="G162" s="19"/>
       <c r="J162" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K162" s="19" t="s">
         <v>53</v>
@@ -10980,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>209</v>
@@ -10995,7 +11002,7 @@
         <v>55</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>53</v>
@@ -11015,7 +11022,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>209</v>
@@ -11030,7 +11037,7 @@
         <v>55</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>53</v>
@@ -11050,7 +11057,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>209</v>
@@ -11065,7 +11072,7 @@
         <v>125</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K166" s="19" t="s">
         <v>53</v>
@@ -11085,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>209</v>
@@ -11100,7 +11107,7 @@
         <v>125</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K167" s="19" t="s">
         <v>53</v>
@@ -11120,7 +11127,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>209</v>
@@ -11135,7 +11142,7 @@
         <v>55</v>
       </c>
       <c r="J168" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>53</v>
@@ -11155,7 +11162,7 @@
         <v>6</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>209</v>
@@ -11170,7 +11177,7 @@
         <v>55</v>
       </c>
       <c r="J169" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K169" s="19" t="s">
         <v>53</v>
@@ -11190,7 +11197,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>209</v>
@@ -11205,7 +11212,7 @@
         <v>55</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K170" s="19" t="s">
         <v>53</v>
@@ -11225,7 +11232,7 @@
         <v>8</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>209</v>
@@ -11240,7 +11247,7 @@
         <v>55</v>
       </c>
       <c r="J171" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K171" s="19" t="s">
         <v>53</v>
@@ -11260,7 +11267,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>209</v>
@@ -11275,7 +11282,7 @@
         <v>62</v>
       </c>
       <c r="J172" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K172" s="19" t="s">
         <v>53</v>
@@ -11295,7 +11302,7 @@
         <v>10</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>209</v>
@@ -11311,7 +11318,7 @@
       </c>
       <c r="G173" s="19"/>
       <c r="J173" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K173" s="19" t="s">
         <v>53</v>
@@ -11370,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>209</v>
@@ -11385,7 +11392,7 @@
         <v>55</v>
       </c>
       <c r="J175" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K175" s="19" t="s">
         <v>53</v>
@@ -11405,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C176" s="19" t="s">
         <v>209</v>
@@ -11420,7 +11427,7 @@
         <v>55</v>
       </c>
       <c r="J176" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K176" s="19" t="s">
         <v>53</v>
@@ -11440,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C177" s="19" t="s">
         <v>209</v>
@@ -11455,7 +11462,7 @@
         <v>125</v>
       </c>
       <c r="J177" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K177" s="19" t="s">
         <v>53</v>
@@ -11475,7 +11482,7 @@
         <v>4</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>209</v>
@@ -11490,7 +11497,7 @@
         <v>125</v>
       </c>
       <c r="J178" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K178" s="19" t="s">
         <v>53</v>
@@ -11510,7 +11517,7 @@
         <v>5</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>209</v>
@@ -11525,7 +11532,7 @@
         <v>135</v>
       </c>
       <c r="J179" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K179" s="19" t="s">
         <v>53</v>
@@ -11545,7 +11552,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C180" s="19" t="s">
         <v>209</v>
@@ -11560,7 +11567,7 @@
         <v>135</v>
       </c>
       <c r="J180" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K180" s="19" t="s">
         <v>53</v>
@@ -11580,7 +11587,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C181" s="19" t="s">
         <v>209</v>
@@ -11595,7 +11602,7 @@
         <v>135</v>
       </c>
       <c r="J181" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K181" s="19" t="s">
         <v>53</v>
@@ -11615,7 +11622,7 @@
         <v>8</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C182" s="19" t="s">
         <v>209</v>
@@ -11631,7 +11638,7 @@
       </c>
       <c r="G182" s="19"/>
       <c r="J182" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K182" s="19" t="s">
         <v>53</v>
@@ -11690,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C184" s="19" t="s">
         <v>209</v>
@@ -11705,7 +11712,7 @@
         <v>55</v>
       </c>
       <c r="J184" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K184" s="19" t="s">
         <v>53</v>
@@ -11725,7 +11732,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>209</v>
@@ -11740,7 +11747,7 @@
         <v>62</v>
       </c>
       <c r="J185" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K185" s="19" t="s">
         <v>53</v>
@@ -11760,7 +11767,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C186" s="19" t="s">
         <v>209</v>
@@ -11776,7 +11783,7 @@
       </c>
       <c r="G186" s="19"/>
       <c r="J186" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K186" s="19" t="s">
         <v>53</v>
@@ -11835,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>209</v>
@@ -11850,7 +11857,7 @@
         <v>55</v>
       </c>
       <c r="J188" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K188" s="19" t="s">
         <v>53</v>
@@ -11870,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>209</v>
@@ -11885,7 +11892,7 @@
         <v>55</v>
       </c>
       <c r="J189" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K189" s="19" t="s">
         <v>53</v>
@@ -11905,7 +11912,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>209</v>
@@ -11920,7 +11927,7 @@
         <v>55</v>
       </c>
       <c r="J190" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K190" s="19" t="s">
         <v>53</v>
@@ -11940,7 +11947,7 @@
         <v>4</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C191" s="19" t="s">
         <v>209</v>
@@ -11955,7 +11962,7 @@
         <v>135</v>
       </c>
       <c r="J191" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K191" s="19" t="s">
         <v>53</v>
@@ -11975,7 +11982,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C192" s="19" t="s">
         <v>209</v>
@@ -11990,7 +11997,7 @@
         <v>135</v>
       </c>
       <c r="J192" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K192" s="19" t="s">
         <v>53</v>
@@ -12010,7 +12017,7 @@
         <v>6</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C193" s="19" t="s">
         <v>209</v>
@@ -12025,7 +12032,7 @@
         <v>135</v>
       </c>
       <c r="J193" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K193" s="19" t="s">
         <v>53</v>
@@ -12045,7 +12052,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C194" s="19" t="s">
         <v>209</v>
@@ -12060,7 +12067,7 @@
         <v>55</v>
       </c>
       <c r="J194" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K194" s="19" t="s">
         <v>53</v>
@@ -12080,7 +12087,7 @@
         <v>8</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C195" s="19" t="s">
         <v>209</v>
@@ -12095,7 +12102,7 @@
         <v>125</v>
       </c>
       <c r="J195" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K195" s="19" t="s">
         <v>53</v>
@@ -12115,7 +12122,7 @@
         <v>9</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C196" s="19" t="s">
         <v>209</v>
@@ -12130,7 +12137,7 @@
         <v>55</v>
       </c>
       <c r="J196" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K196" s="19" t="s">
         <v>53</v>
@@ -12150,7 +12157,7 @@
         <v>10</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C197" s="19" t="s">
         <v>209</v>
@@ -12165,7 +12172,7 @@
         <v>55</v>
       </c>
       <c r="J197" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K197" s="19" t="s">
         <v>53</v>
@@ -12185,7 +12192,7 @@
         <v>11</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C198" s="19" t="s">
         <v>209</v>
@@ -12201,7 +12208,7 @@
       </c>
       <c r="G198" s="19"/>
       <c r="J198" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K198" s="19" t="s">
         <v>53</v>
@@ -12260,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C200" s="19" t="s">
         <v>209</v>
@@ -12275,7 +12282,7 @@
         <v>55</v>
       </c>
       <c r="J200" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K200" s="19" t="s">
         <v>53</v>
@@ -12295,7 +12302,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C201" s="19" t="s">
         <v>209</v>
@@ -12310,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="J201" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K201" s="19" t="s">
         <v>53</v>
@@ -12330,7 +12337,7 @@
         <v>3</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C202" s="19" t="s">
         <v>209</v>
@@ -12345,7 +12352,7 @@
         <v>55</v>
       </c>
       <c r="J202" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K202" s="19" t="s">
         <v>53</v>
@@ -12365,7 +12372,7 @@
         <v>4</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C203" s="19" t="s">
         <v>209</v>
@@ -12380,7 +12387,7 @@
         <v>135</v>
       </c>
       <c r="J203" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K203" s="19" t="s">
         <v>53</v>
@@ -12400,7 +12407,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C204" s="19" t="s">
         <v>209</v>
@@ -12415,7 +12422,7 @@
         <v>135</v>
       </c>
       <c r="J204" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K204" s="19" t="s">
         <v>53</v>
@@ -12435,7 +12442,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C205" s="19" t="s">
         <v>209</v>
@@ -12450,7 +12457,7 @@
         <v>125</v>
       </c>
       <c r="J205" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K205" s="19" t="s">
         <v>53</v>
@@ -12470,7 +12477,7 @@
         <v>7</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C206" s="19" t="s">
         <v>209</v>
@@ -12485,7 +12492,7 @@
         <v>55</v>
       </c>
       <c r="J206" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K206" s="19" t="s">
         <v>53</v>
@@ -12505,7 +12512,7 @@
         <v>8</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C207" s="19" t="s">
         <v>209</v>
@@ -12520,7 +12527,7 @@
         <v>55</v>
       </c>
       <c r="J207" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K207" s="19" t="s">
         <v>53</v>
@@ -12540,7 +12547,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C208" s="19" t="s">
         <v>209</v>
@@ -12556,7 +12563,7 @@
       </c>
       <c r="G208" s="19"/>
       <c r="J208" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K208" s="19" t="s">
         <v>53</v>
@@ -12635,7 +12642,7 @@
   </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -25202,7 +25209,9 @@
   </sheetPr>
   <dimension ref="A1:AF936"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -25309,7 +25318,7 @@
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>260</v>
@@ -25328,7 +25337,7 @@
       </c>
       <c r="H4" s="19"/>
       <c r="J4" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>209</v>
@@ -25349,7 +25358,7 @@
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>260</v>
@@ -25366,7 +25375,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="J5" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>209</v>
@@ -25384,7 +25393,7 @@
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>260</v>
@@ -25401,7 +25410,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="J6" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>209</v>
@@ -25419,7 +25428,7 @@
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>260</v>
@@ -25436,7 +25445,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="J7" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>209</v>
@@ -25454,7 +25463,7 @@
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>260</v>
@@ -25471,7 +25480,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="J8" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>209</v>
@@ -25489,7 +25498,7 @@
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>260</v>
@@ -25506,7 +25515,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="J9" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>209</v>
@@ -25524,7 +25533,7 @@
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>260</v>
@@ -25541,7 +25550,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="J10" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>209</v>
@@ -25559,7 +25568,7 @@
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>260</v>
@@ -25576,7 +25585,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="J11" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>209</v>
@@ -25594,7 +25603,7 @@
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>260</v>
@@ -25611,7 +25620,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="J12" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>209</v>
@@ -25629,7 +25638,7 @@
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>260</v>
@@ -25646,7 +25655,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="J13" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>209</v>
@@ -25664,7 +25673,7 @@
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>260</v>
@@ -25681,7 +25690,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="J14" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>209</v>
@@ -25699,7 +25708,7 @@
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>260</v>
@@ -25716,7 +25725,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="J15" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>209</v>
@@ -25734,7 +25743,7 @@
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>260</v>
@@ -25751,7 +25760,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="J16" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>209</v>
@@ -25769,7 +25778,7 @@
     <row r="17" spans="1:32" ht="15.75" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>260</v>
@@ -25786,7 +25795,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="J17" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>209</v>
@@ -25804,7 +25813,7 @@
     <row r="18" spans="1:32" ht="15.75" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>260</v>
@@ -25821,7 +25830,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="J18" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>209</v>
@@ -25839,7 +25848,7 @@
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>260</v>
@@ -25856,7 +25865,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="J19" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>209</v>
@@ -25874,7 +25883,7 @@
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>260</v>
@@ -25891,7 +25900,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="J20" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>209</v>
@@ -25909,7 +25918,7 @@
     <row r="21" spans="1:32" ht="15.75" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>260</v>
@@ -25926,7 +25935,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="J21" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>209</v>
@@ -25944,7 +25953,7 @@
     <row r="22" spans="1:32" ht="15.75" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>260</v>
@@ -26005,7 +26014,7 @@
     <row r="24" spans="1:32" ht="15.75" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>260</v>
@@ -26024,7 +26033,7 @@
       </c>
       <c r="H24" s="19"/>
       <c r="J24" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>209</v>
@@ -26042,7 +26051,7 @@
     <row r="25" spans="1:32" ht="15.75" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>260</v>
@@ -26059,7 +26068,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="J25" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>209</v>
@@ -26077,7 +26086,7 @@
     <row r="26" spans="1:32" ht="15.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>260</v>
@@ -26094,7 +26103,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="J26" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>209</v>
@@ -26112,7 +26121,7 @@
     <row r="27" spans="1:32" ht="15.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>260</v>
@@ -26129,7 +26138,7 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="J27" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>209</v>
@@ -26147,7 +26156,7 @@
     <row r="28" spans="1:32" ht="15.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>260</v>
@@ -26164,7 +26173,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="J28" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>209</v>
@@ -26182,7 +26191,7 @@
     <row r="29" spans="1:32" ht="15.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>260</v>
@@ -26199,7 +26208,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="J29" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>209</v>
@@ -26217,7 +26226,7 @@
     <row r="30" spans="1:32" ht="15.75" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>260</v>
@@ -26234,7 +26243,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="J30" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>209</v>
@@ -26252,7 +26261,7 @@
     <row r="31" spans="1:32" ht="15.75" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>260</v>
@@ -26269,7 +26278,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="J31" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>209</v>
@@ -26287,7 +26296,7 @@
     <row r="32" spans="1:32" ht="15.75" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>260</v>
@@ -26304,7 +26313,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="J32" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>209</v>
@@ -26322,7 +26331,7 @@
     <row r="33" spans="1:32" ht="15.75" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>260</v>
@@ -26339,7 +26348,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="J33" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>209</v>
@@ -26357,7 +26366,7 @@
     <row r="34" spans="1:32" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>260</v>
@@ -26374,7 +26383,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="J34" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>209</v>
@@ -26392,7 +26401,7 @@
     <row r="35" spans="1:32" ht="15.75" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>260</v>
@@ -26409,7 +26418,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="J35" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>209</v>
@@ -26427,7 +26436,7 @@
     <row r="36" spans="1:32" ht="15.75" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>260</v>
@@ -26444,7 +26453,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="J36" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>209</v>
@@ -26462,7 +26471,7 @@
     <row r="37" spans="1:32" ht="15.75" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>260</v>
@@ -26479,7 +26488,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="J37" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>209</v>
@@ -26497,7 +26506,7 @@
     <row r="38" spans="1:32" ht="15.75" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>260</v>
@@ -26514,7 +26523,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>209</v>
@@ -26532,7 +26541,7 @@
     <row r="39" spans="1:32" ht="15.75" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>260</v>
@@ -26549,7 +26558,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="J39" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>209</v>
@@ -26567,7 +26576,7 @@
     <row r="40" spans="1:32" ht="15.75" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>260</v>
@@ -26584,7 +26593,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="J40" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>209</v>
@@ -26602,7 +26611,7 @@
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>260</v>
@@ -26619,7 +26628,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="J41" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>209</v>
@@ -26637,7 +26646,7 @@
     <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>260</v>
@@ -26698,7 +26707,7 @@
     <row r="44" spans="1:32" ht="15.75" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>260</v>
@@ -26730,7 +26739,7 @@
     <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>260</v>
@@ -26760,7 +26769,7 @@
     <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>260</v>
@@ -26790,7 +26799,7 @@
     <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>260</v>
@@ -26820,7 +26829,7 @@
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>260</v>
@@ -26850,7 +26859,7 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>260</v>
@@ -26880,7 +26889,7 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>260</v>
@@ -26910,7 +26919,7 @@
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>260</v>
@@ -26940,7 +26949,7 @@
     <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>260</v>
@@ -26970,7 +26979,7 @@
     <row r="53" spans="1:32" ht="15.75" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>260</v>
@@ -27000,7 +27009,7 @@
     <row r="54" spans="1:32" ht="15.75" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>260</v>
@@ -27030,7 +27039,7 @@
     <row r="55" spans="1:32" ht="15.75" customHeight="1">
       <c r="A55" s="18"/>
       <c r="B55" s="29" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>260</v>
@@ -27111,7 +27120,7 @@
     <row r="58" spans="1:32" ht="15.75" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>260</v>
@@ -27126,7 +27135,7 @@
         <v>55</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>209</v>
@@ -27144,7 +27153,7 @@
     <row r="59" spans="1:32" ht="13">
       <c r="A59" s="18"/>
       <c r="B59" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>260</v>
@@ -27159,7 +27168,7 @@
         <v>62</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K59" s="19" t="s">
         <v>209</v>
@@ -27177,7 +27186,7 @@
     <row r="60" spans="1:32" ht="13">
       <c r="A60" s="18"/>
       <c r="B60" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>260</v>
@@ -27192,7 +27201,7 @@
         <v>62</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K60" s="19" t="s">
         <v>209</v>
@@ -27210,7 +27219,7 @@
     <row r="61" spans="1:32" ht="13">
       <c r="A61" s="18"/>
       <c r="B61" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>260</v>
@@ -27225,7 +27234,7 @@
         <v>62</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K61" s="19" t="s">
         <v>209</v>
@@ -27243,7 +27252,7 @@
     <row r="62" spans="1:32" ht="13">
       <c r="A62" s="18"/>
       <c r="B62" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>260</v>
@@ -27258,7 +27267,7 @@
         <v>62</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>209</v>
@@ -27276,7 +27285,7 @@
     <row r="63" spans="1:32" ht="13">
       <c r="A63" s="18"/>
       <c r="B63" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>260</v>
@@ -27291,7 +27300,7 @@
         <v>135</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K63" s="19" t="s">
         <v>209</v>
@@ -27309,7 +27318,7 @@
     <row r="64" spans="1:32" ht="13">
       <c r="A64" s="18"/>
       <c r="B64" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>260</v>
@@ -27324,7 +27333,7 @@
         <v>135</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>209</v>
@@ -27342,7 +27351,7 @@
     <row r="65" spans="1:32" ht="13">
       <c r="A65" s="18"/>
       <c r="B65" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>260</v>
@@ -27357,7 +27366,7 @@
         <v>55</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>209</v>
@@ -27375,7 +27384,7 @@
     <row r="66" spans="1:32" ht="13">
       <c r="A66" s="18"/>
       <c r="B66" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>260</v>
@@ -27390,7 +27399,7 @@
         <v>55</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K66" s="19" t="s">
         <v>209</v>
@@ -27408,7 +27417,7 @@
     <row r="67" spans="1:32" ht="13">
       <c r="A67" s="18"/>
       <c r="B67" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>260</v>
@@ -27423,7 +27432,7 @@
         <v>62</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>209</v>
@@ -27441,7 +27450,7 @@
     <row r="68" spans="1:32" ht="13">
       <c r="A68" s="18"/>
       <c r="B68" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>260</v>
@@ -27456,7 +27465,7 @@
         <v>55</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>209</v>
@@ -27474,7 +27483,7 @@
     <row r="69" spans="1:32" ht="13">
       <c r="A69" s="18"/>
       <c r="B69" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>260</v>
@@ -27489,7 +27498,7 @@
         <v>55</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K69" s="19" t="s">
         <v>209</v>
@@ -27507,7 +27516,7 @@
     <row r="70" spans="1:32" ht="13">
       <c r="A70" s="18"/>
       <c r="B70" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>260</v>
@@ -27522,7 +27531,7 @@
         <v>62</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K70" s="19" t="s">
         <v>209</v>
@@ -27540,7 +27549,7 @@
     <row r="71" spans="1:32" ht="13">
       <c r="A71" s="18"/>
       <c r="B71" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>260</v>
@@ -27555,7 +27564,7 @@
         <v>62</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K71" s="19" t="s">
         <v>209</v>
@@ -27573,7 +27582,7 @@
     <row r="72" spans="1:32" ht="13">
       <c r="A72" s="23"/>
       <c r="B72" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>260</v>
@@ -27634,7 +27643,7 @@
     <row r="74" spans="1:32" ht="13">
       <c r="A74" s="18"/>
       <c r="B74" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>260</v>
@@ -27649,7 +27658,7 @@
         <v>55</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K74" s="19" t="s">
         <v>209</v>
@@ -27667,7 +27676,7 @@
     <row r="75" spans="1:32" ht="13">
       <c r="A75" s="18"/>
       <c r="B75" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>260</v>
@@ -27682,7 +27691,7 @@
         <v>55</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K75" s="19" t="s">
         <v>209</v>
@@ -27700,7 +27709,7 @@
     <row r="76" spans="1:32" ht="13">
       <c r="A76" s="18"/>
       <c r="B76" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>260</v>
@@ -27715,7 +27724,7 @@
         <v>125</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K76" s="19" t="s">
         <v>209</v>
@@ -27733,7 +27742,7 @@
     <row r="77" spans="1:32" ht="13">
       <c r="A77" s="18"/>
       <c r="B77" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>260</v>
@@ -27748,7 +27757,7 @@
         <v>125</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>209</v>
@@ -27766,7 +27775,7 @@
     <row r="78" spans="1:32" ht="13">
       <c r="A78" s="18"/>
       <c r="B78" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>260</v>
@@ -27781,7 +27790,7 @@
         <v>55</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K78" s="19" t="s">
         <v>209</v>
@@ -27799,7 +27808,7 @@
     <row r="79" spans="1:32" ht="13">
       <c r="A79" s="18"/>
       <c r="B79" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>260</v>
@@ -27814,7 +27823,7 @@
         <v>55</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K79" s="19" t="s">
         <v>209</v>
@@ -27832,7 +27841,7 @@
     <row r="80" spans="1:32" ht="13">
       <c r="A80" s="18"/>
       <c r="B80" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>260</v>
@@ -27847,7 +27856,7 @@
         <v>55</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K80" s="19" t="s">
         <v>209</v>
@@ -27865,7 +27874,7 @@
     <row r="81" spans="1:32" ht="13">
       <c r="A81" s="18"/>
       <c r="B81" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>260</v>
@@ -27880,7 +27889,7 @@
         <v>55</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>209</v>
@@ -27898,7 +27907,7 @@
     <row r="82" spans="1:32" ht="13">
       <c r="A82" s="18"/>
       <c r="B82" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>260</v>
@@ -27913,7 +27922,7 @@
         <v>62</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>209</v>
@@ -27931,7 +27940,7 @@
     <row r="83" spans="1:32" ht="13">
       <c r="A83" s="23"/>
       <c r="B83" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>260</v>
@@ -27992,7 +28001,7 @@
     <row r="85" spans="1:32" ht="13">
       <c r="A85" s="18"/>
       <c r="B85" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>260</v>
@@ -28007,7 +28016,7 @@
         <v>55</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>209</v>
@@ -28025,7 +28034,7 @@
     <row r="86" spans="1:32" ht="13">
       <c r="A86" s="18"/>
       <c r="B86" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>260</v>
@@ -28040,7 +28049,7 @@
         <v>55</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K86" s="19" t="s">
         <v>209</v>
@@ -28058,7 +28067,7 @@
     <row r="87" spans="1:32" ht="13">
       <c r="A87" s="18"/>
       <c r="B87" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>260</v>
@@ -28073,7 +28082,7 @@
         <v>55</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K87" s="19" t="s">
         <v>209</v>
@@ -28091,7 +28100,7 @@
     <row r="88" spans="1:32" ht="13">
       <c r="A88" s="18"/>
       <c r="B88" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>260</v>
@@ -28107,7 +28116,7 @@
       </c>
       <c r="H88" s="19"/>
       <c r="J88" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K88" s="19" t="s">
         <v>209</v>
@@ -28125,7 +28134,7 @@
     <row r="89" spans="1:32" ht="13">
       <c r="A89" s="18"/>
       <c r="B89" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>260</v>
@@ -28141,7 +28150,7 @@
       </c>
       <c r="H89" s="19"/>
       <c r="J89" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K89" s="19" t="s">
         <v>209</v>
@@ -28159,7 +28168,7 @@
     <row r="90" spans="1:32" ht="13">
       <c r="A90" s="18"/>
       <c r="B90" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>260</v>
@@ -28175,7 +28184,7 @@
       </c>
       <c r="H90" s="19"/>
       <c r="J90" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>209</v>
@@ -28193,7 +28202,7 @@
     <row r="91" spans="1:32" ht="13">
       <c r="A91" s="18"/>
       <c r="B91" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>260</v>
@@ -28208,7 +28217,7 @@
         <v>135</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>209</v>
@@ -28226,7 +28235,7 @@
     <row r="92" spans="1:32" ht="13">
       <c r="A92" s="18"/>
       <c r="B92" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>260</v>
@@ -28241,7 +28250,7 @@
         <v>135</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K92" s="19" t="s">
         <v>209</v>
@@ -28259,7 +28268,7 @@
     <row r="93" spans="1:32" ht="13">
       <c r="A93" s="18"/>
       <c r="B93" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>260</v>
@@ -28274,7 +28283,7 @@
         <v>55</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>209</v>
@@ -28292,7 +28301,7 @@
     <row r="94" spans="1:32" ht="13">
       <c r="A94" s="18"/>
       <c r="B94" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>260</v>
@@ -28307,7 +28316,7 @@
         <v>125</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K94" s="19" t="s">
         <v>209</v>
@@ -28325,7 +28334,7 @@
     <row r="95" spans="1:32" ht="13">
       <c r="A95" s="18"/>
       <c r="B95" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>260</v>
@@ -28340,7 +28349,7 @@
         <v>55</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K95" s="19" t="s">
         <v>209</v>
@@ -28358,7 +28367,7 @@
     <row r="96" spans="1:32" ht="13">
       <c r="A96" s="18"/>
       <c r="B96" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>260</v>
@@ -28373,7 +28382,7 @@
         <v>55</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>209</v>
@@ -28391,7 +28400,7 @@
     <row r="97" spans="1:32" ht="13">
       <c r="A97" s="18"/>
       <c r="B97" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>260</v>
@@ -28407,7 +28416,7 @@
       </c>
       <c r="G97" s="19"/>
       <c r="J97" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>209</v>
@@ -28425,7 +28434,7 @@
     <row r="98" spans="1:32" ht="13">
       <c r="A98" s="23"/>
       <c r="B98" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>260</v>
@@ -28443,7 +28452,7 @@
       <c r="H98" s="23"/>
       <c r="I98" s="23"/>
       <c r="J98" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>209</v>
@@ -28479,7 +28488,7 @@
     <row r="99" spans="1:32" ht="13">
       <c r="A99" s="23"/>
       <c r="B99" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>260</v>
@@ -28497,7 +28506,7 @@
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
       <c r="J99" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>209</v>
@@ -28533,7 +28542,7 @@
     <row r="100" spans="1:32" ht="13">
       <c r="A100" s="23"/>
       <c r="B100" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>260</v>
@@ -28594,7 +28603,7 @@
     <row r="102" spans="1:32" ht="13">
       <c r="A102" s="18"/>
       <c r="B102" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>260</v>
@@ -28609,7 +28618,7 @@
         <v>55</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K102" s="19" t="s">
         <v>209</v>
@@ -28630,7 +28639,7 @@
     <row r="103" spans="1:32" ht="13">
       <c r="A103" s="18"/>
       <c r="B103" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>260</v>
@@ -28645,7 +28654,7 @@
         <v>55</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K103" s="19" t="s">
         <v>209</v>
@@ -28663,7 +28672,7 @@
     <row r="104" spans="1:32" ht="13">
       <c r="A104" s="18"/>
       <c r="B104" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>260</v>
@@ -28678,7 +28687,7 @@
         <v>55</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K104" s="19" t="s">
         <v>209</v>
@@ -28696,7 +28705,7 @@
     <row r="105" spans="1:32" ht="13">
       <c r="A105" s="18"/>
       <c r="B105" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>260</v>
@@ -28711,7 +28720,7 @@
         <v>55</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K105" s="19" t="s">
         <v>209</v>
@@ -28729,7 +28738,7 @@
     <row r="106" spans="1:32" ht="13">
       <c r="A106" s="18"/>
       <c r="B106" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>260</v>
@@ -28744,7 +28753,7 @@
         <v>135</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K106" s="19" t="s">
         <v>209</v>
@@ -28762,7 +28771,7 @@
     <row r="107" spans="1:32" ht="13">
       <c r="A107" s="18"/>
       <c r="B107" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>260</v>
@@ -28777,7 +28786,7 @@
         <v>135</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K107" s="19" t="s">
         <v>209</v>
@@ -28795,7 +28804,7 @@
     <row r="108" spans="1:32" ht="13">
       <c r="A108" s="18"/>
       <c r="B108" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>260</v>
@@ -28810,7 +28819,7 @@
         <v>125</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K108" s="19" t="s">
         <v>209</v>
@@ -28828,7 +28837,7 @@
     <row r="109" spans="1:32" ht="13">
       <c r="A109" s="18"/>
       <c r="B109" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>260</v>
@@ -28843,7 +28852,7 @@
         <v>55</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K109" s="19" t="s">
         <v>209</v>
@@ -28861,7 +28870,7 @@
     <row r="110" spans="1:32" ht="13">
       <c r="A110" s="18"/>
       <c r="B110" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>260</v>
@@ -28876,7 +28885,7 @@
         <v>55</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K110" s="19" t="s">
         <v>209</v>
@@ -28894,7 +28903,7 @@
     <row r="111" spans="1:32" ht="13">
       <c r="A111" s="18"/>
       <c r="B111" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>260</v>
@@ -28909,7 +28918,7 @@
         <v>55</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K111" s="19" t="s">
         <v>209</v>
@@ -28927,7 +28936,7 @@
     <row r="112" spans="1:32" ht="13">
       <c r="A112" s="18"/>
       <c r="B112" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>260</v>
@@ -28942,7 +28951,7 @@
         <v>55</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K112" s="19" t="s">
         <v>209</v>
@@ -28960,7 +28969,7 @@
     <row r="113" spans="1:14" ht="13">
       <c r="A113" s="18"/>
       <c r="B113" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>260</v>
@@ -28975,7 +28984,7 @@
         <v>125</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>209</v>
@@ -28993,7 +29002,7 @@
     <row r="114" spans="1:14" ht="13">
       <c r="A114" s="18"/>
       <c r="B114" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>260</v>
@@ -29008,7 +29017,7 @@
         <v>125</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>209</v>
@@ -29026,7 +29035,7 @@
     <row r="115" spans="1:14" ht="13">
       <c r="A115" s="18"/>
       <c r="B115" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>260</v>
@@ -29041,7 +29050,7 @@
         <v>55</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>209</v>
@@ -29059,7 +29068,7 @@
     <row r="116" spans="1:14" ht="13">
       <c r="A116" s="18"/>
       <c r="B116" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>260</v>
@@ -29074,7 +29083,7 @@
         <v>125</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>209</v>
@@ -29092,7 +29101,7 @@
     <row r="117" spans="1:14" ht="13">
       <c r="A117" s="18"/>
       <c r="B117" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>260</v>
@@ -29107,7 +29116,7 @@
         <v>135</v>
       </c>
       <c r="J117" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K117" s="19" t="s">
         <v>209</v>
@@ -29125,7 +29134,7 @@
     <row r="118" spans="1:14" ht="13">
       <c r="A118" s="18"/>
       <c r="B118" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>260</v>
@@ -29140,7 +29149,7 @@
         <v>135</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K118" s="19" t="s">
         <v>209</v>
@@ -29158,7 +29167,7 @@
     <row r="119" spans="1:14" ht="13">
       <c r="A119" s="18"/>
       <c r="B119" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>260</v>
@@ -29173,7 +29182,7 @@
         <v>125</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K119" s="19" t="s">
         <v>209</v>
@@ -29191,7 +29200,7 @@
     <row r="120" spans="1:14" ht="13">
       <c r="A120" s="18"/>
       <c r="B120" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>260</v>
@@ -29206,7 +29215,7 @@
         <v>135</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K120" s="19" t="s">
         <v>209</v>
@@ -29224,7 +29233,7 @@
     <row r="121" spans="1:14" ht="13">
       <c r="A121" s="18"/>
       <c r="B121" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>260</v>
@@ -29239,7 +29248,7 @@
         <v>62</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>209</v>
@@ -29257,7 +29266,7 @@
     <row r="122" spans="1:14" ht="13">
       <c r="A122" s="18"/>
       <c r="B122" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>260</v>
@@ -29272,7 +29281,7 @@
         <v>62</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>209</v>
@@ -29290,7 +29299,7 @@
     <row r="123" spans="1:14" ht="13">
       <c r="A123" s="18"/>
       <c r="B123" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>260</v>
@@ -29305,7 +29314,7 @@
         <v>55</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>209</v>
@@ -29323,7 +29332,7 @@
     <row r="124" spans="1:14" ht="13">
       <c r="A124" s="18"/>
       <c r="B124" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>260</v>
@@ -29338,7 +29347,7 @@
         <v>125</v>
       </c>
       <c r="J124" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K124" s="19" t="s">
         <v>209</v>
@@ -29356,7 +29365,7 @@
     <row r="125" spans="1:14" ht="13">
       <c r="A125" s="18"/>
       <c r="B125" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>260</v>
@@ -29371,7 +29380,7 @@
         <v>55</v>
       </c>
       <c r="J125" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K125" s="19" t="s">
         <v>209</v>
@@ -29389,7 +29398,7 @@
     <row r="126" spans="1:14" ht="13">
       <c r="A126" s="18"/>
       <c r="B126" s="32" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>260</v>
@@ -56550,7 +56559,7 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -57152,7 +57161,9 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -57345,7 +57356,9 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -57587,7 +57600,7 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -59134,7 +59147,9 @@
   </sheetPr>
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -59233,7 +59248,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>53</v>
@@ -59275,7 +59290,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>53</v>
@@ -59314,7 +59329,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>53</v>
@@ -59353,7 +59368,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>53</v>
@@ -59392,7 +59407,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>53</v>
@@ -59431,7 +59446,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>53</v>
@@ -59470,7 +59485,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>53</v>
@@ -59509,7 +59524,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>53</v>
@@ -59548,7 +59563,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>53</v>
@@ -59587,7 +59602,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>53</v>
@@ -59626,7 +59641,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>53</v>
@@ -59665,7 +59680,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>53</v>
@@ -59704,7 +59719,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>53</v>
@@ -59743,7 +59758,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>53</v>
@@ -59782,7 +59797,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>53</v>
@@ -59821,7 +59836,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>53</v>
@@ -59860,7 +59875,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>53</v>
@@ -59897,7 +59912,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>53</v>
@@ -59952,7 +59967,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>53</v>
@@ -59992,7 +60007,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>53</v>
@@ -60029,7 +60044,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>53</v>
@@ -60066,7 +60081,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>53</v>
@@ -60103,7 +60118,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>53</v>
@@ -60140,7 +60155,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>53</v>
@@ -60177,7 +60192,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>53</v>
@@ -60214,7 +60229,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>53</v>
@@ -60251,7 +60266,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>53</v>
@@ -60288,7 +60303,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>53</v>
@@ -60325,7 +60340,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>53</v>
@@ -60362,7 +60377,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>53</v>
@@ -60399,7 +60414,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>53</v>
@@ -60436,7 +60451,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>53</v>
@@ -60473,7 +60488,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>53</v>
@@ -60510,7 +60525,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>53</v>
@@ -60547,7 +60562,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>53</v>
@@ -60584,7 +60599,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>53</v>
@@ -60639,7 +60654,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>53</v>
@@ -60679,7 +60694,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>53</v>
@@ -60734,7 +60749,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>53</v>
@@ -60772,7 +60787,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>53</v>
@@ -60828,7 +60843,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>53</v>
@@ -60866,7 +60881,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>53</v>
@@ -60919,7 +60934,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>53</v>
@@ -60957,7 +60972,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>53</v>
@@ -60992,7 +61007,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>53</v>
@@ -61027,7 +61042,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>53</v>
@@ -61062,7 +61077,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>53</v>
@@ -61097,7 +61112,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>53</v>
@@ -61132,7 +61147,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>53</v>
@@ -61167,7 +61182,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>53</v>
@@ -61202,7 +61217,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>53</v>
@@ -61237,7 +61252,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>53</v>
@@ -61272,7 +61287,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>53</v>
@@ -61307,7 +61322,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>53</v>
@@ -61342,7 +61357,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>53</v>
@@ -61377,7 +61392,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>53</v>
@@ -61412,7 +61427,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>53</v>
@@ -61447,7 +61462,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>53</v>
@@ -61482,7 +61497,7 @@
         <v>17</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>53</v>
@@ -61517,7 +61532,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>53</v>
@@ -61570,7 +61585,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>53</v>
@@ -61608,7 +61623,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>53</v>
@@ -61661,7 +61676,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>53</v>
@@ -61699,7 +61714,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>53</v>
@@ -61752,7 +61767,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>53</v>
@@ -61790,7 +61805,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>53</v>
@@ -61828,7 +61843,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>53</v>
@@ -61866,7 +61881,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>53</v>
@@ -61901,7 +61916,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>53</v>
@@ -61936,7 +61951,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>53</v>
@@ -61974,7 +61989,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>53</v>
@@ -62009,7 +62024,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>53</v>
@@ -62044,7 +62059,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>53</v>
@@ -62079,7 +62094,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>53</v>
@@ -62114,7 +62129,7 @@
         <v>11</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>53</v>
@@ -62149,7 +62164,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>53</v>
@@ -62184,7 +62199,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>53</v>
@@ -62219,7 +62234,7 @@
         <v>14</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>53</v>
@@ -62254,7 +62269,7 @@
         <v>15</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>53</v>
@@ -62289,7 +62304,7 @@
         <v>16</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>53</v>
@@ -62324,7 +62339,7 @@
         <v>17</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>53</v>
@@ -62359,7 +62374,7 @@
         <v>18</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>53</v>
@@ -62394,7 +62409,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>53</v>
@@ -62432,7 +62447,7 @@
         <v>20</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>53</v>
@@ -62488,7 +62503,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>53</v>
@@ -62526,7 +62541,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>53</v>
@@ -62564,7 +62579,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>53</v>
@@ -62599,7 +62614,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>53</v>
@@ -62634,7 +62649,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>53</v>
@@ -62669,7 +62684,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>53</v>
@@ -62704,7 +62719,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>53</v>
@@ -62739,7 +62754,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>53</v>
@@ -62774,7 +62789,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>53</v>
@@ -62809,7 +62824,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>53</v>
@@ -62844,7 +62859,7 @@
         <v>11</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>53</v>
@@ -62879,7 +62894,7 @@
         <v>12</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>53</v>
@@ -62914,7 +62929,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>53</v>
@@ -62949,7 +62964,7 @@
         <v>14</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>53</v>
@@ -63002,7 +63017,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>53</v>
@@ -63040,7 +63055,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>53</v>
@@ -63093,7 +63108,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>53</v>
@@ -63131,7 +63146,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>53</v>
@@ -63166,7 +63181,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>53</v>
@@ -63201,7 +63216,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>53</v>
@@ -63236,7 +63251,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>53</v>
@@ -63271,7 +63286,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>53</v>
@@ -63306,7 +63321,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>53</v>
@@ -63341,7 +63356,7 @@
         <v>8</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>53</v>
@@ -63376,7 +63391,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>53</v>
@@ -63411,7 +63426,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>53</v>
@@ -63446,7 +63461,7 @@
         <v>11</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>53</v>
@@ -63481,7 +63496,7 @@
         <v>12</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>53</v>
@@ -63516,7 +63531,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>53</v>
@@ -63551,7 +63566,7 @@
         <v>14</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>53</v>
@@ -63586,7 +63601,7 @@
         <v>15</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>53</v>
@@ -63621,7 +63636,7 @@
         <v>16</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>53</v>
@@ -63656,7 +63671,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>53</v>
@@ -63691,7 +63706,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>53</v>
@@ -63744,7 +63759,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>53</v>
@@ -63782,7 +63797,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>53</v>
@@ -63820,7 +63835,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>53</v>
@@ -63855,7 +63870,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>53</v>
@@ -63890,7 +63905,7 @@
         <v>5</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>53</v>
@@ -63925,7 +63940,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>53</v>
@@ -63963,7 +63978,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>53</v>
@@ -63998,7 +64013,7 @@
         <v>8</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>53</v>
@@ -64033,7 +64048,7 @@
         <v>9</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>53</v>
@@ -64068,7 +64083,7 @@
         <v>10</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>53</v>
@@ -64103,7 +64118,7 @@
         <v>11</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>53</v>
@@ -64138,7 +64153,7 @@
         <v>12</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>53</v>
@@ -64173,7 +64188,7 @@
         <v>13</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>53</v>
@@ -64208,7 +64223,7 @@
         <v>14</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>53</v>
@@ -64243,7 +64258,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>53</v>
@@ -64278,7 +64293,7 @@
         <v>16</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>53</v>
@@ -64331,7 +64346,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>53</v>
@@ -64369,7 +64384,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>53</v>
@@ -64404,7 +64419,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>53</v>
@@ -64439,7 +64454,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>53</v>
@@ -64474,7 +64489,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>53</v>
@@ -64512,7 +64527,7 @@
         <v>6</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>53</v>
@@ -64547,7 +64562,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>53</v>
@@ -64585,7 +64600,7 @@
         <v>8</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>53</v>
@@ -64623,7 +64638,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C159" s="19" t="s">
         <v>53</v>
@@ -64676,7 +64691,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>53</v>
@@ -64714,7 +64729,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>53</v>
@@ -64752,7 +64767,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>53</v>
@@ -64787,7 +64802,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>53</v>
@@ -64822,7 +64837,7 @@
         <v>5</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>53</v>
@@ -64857,7 +64872,7 @@
         <v>6</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>53</v>
@@ -64892,7 +64907,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>53</v>
@@ -64945,7 +64960,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>53</v>
@@ -64983,7 +64998,7 @@
         <v>2</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>53</v>
@@ -65036,7 +65051,7 @@
         <v>1</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>53</v>
@@ -65074,7 +65089,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>53</v>
@@ -65112,7 +65127,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>53</v>
@@ -65150,7 +65165,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>53</v>
@@ -65185,7 +65200,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C176" s="19" t="s">
         <v>53</v>
@@ -65220,7 +65235,7 @@
         <v>6</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C177" s="19" t="s">
         <v>53</v>
@@ -65255,7 +65270,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>53</v>
@@ -65293,7 +65308,7 @@
         <v>8</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>53</v>
@@ -65328,7 +65343,7 @@
         <v>9</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C180" s="19" t="s">
         <v>53</v>
@@ -65366,7 +65381,7 @@
         <v>10</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C181" s="19" t="s">
         <v>53</v>
@@ -65422,7 +65437,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C183" s="19" t="s">
         <v>53</v>
@@ -65460,7 +65475,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C184" s="19" t="s">
         <v>53</v>
@@ -65498,7 +65513,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>53</v>
@@ -65536,7 +65551,7 @@
         <v>4</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C186" s="19" t="s">
         <v>53</v>
@@ -65571,7 +65586,7 @@
         <v>5</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C187" s="19" t="s">
         <v>53</v>
@@ -65606,7 +65621,7 @@
         <v>6</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>53</v>
@@ -65641,7 +65656,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>53</v>
@@ -65676,7 +65691,7 @@
         <v>8</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>53</v>

--- a/project2-building-a-dimensional-data-warehouse/guide_workbook.xlsx
+++ b/project2-building-a-dimensional-data-warehouse/guide_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdurrahim/Documents/workspace/Github/data-engineering-portfolio/project2-building-a-dimensional-data-warehouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C07C8-58F0-5144-8F12-D4FF81F68CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD79A2-B317-B04C-9B21-2D27F79F4DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BusMatrix-HighLevelEntites-(Tem" sheetId="1" r:id="rId1"/>
@@ -25209,7 +25209,7 @@
   </sheetPr>
   <dimension ref="A1:AF936"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -34317,7 +34317,7 @@
   </sheetPr>
   <dimension ref="A1:P813"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A33" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39342,7 +39342,9 @@
   </sheetPr>
   <dimension ref="A1:P935"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39466,7 +39468,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="J4" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>235</v>
@@ -39505,7 +39507,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="J5" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>235</v>
@@ -39542,7 +39544,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="J6" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>235</v>
@@ -39579,7 +39581,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="J7" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>235</v>
@@ -39616,7 +39618,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="J8" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>235</v>
@@ -39653,7 +39655,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="J9" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>235</v>
@@ -39690,7 +39692,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="J10" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>235</v>
@@ -39727,7 +39729,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="J11" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>235</v>
@@ -39764,7 +39766,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="J12" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>235</v>
@@ -39801,7 +39803,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="J13" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>235</v>
@@ -39838,7 +39840,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="J14" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>235</v>
@@ -39875,7 +39877,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="J15" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>235</v>
@@ -39912,7 +39914,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="J16" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>235</v>
@@ -39949,7 +39951,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="J17" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>235</v>
@@ -39986,7 +39988,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="J18" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>235</v>
@@ -40023,7 +40025,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="J19" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>235</v>
@@ -40060,7 +40062,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="J20" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>235</v>
@@ -40097,7 +40099,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="J21" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>235</v>
@@ -40134,7 +40136,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="J22" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>240</v>
@@ -40173,7 +40175,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="J23" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>240</v>
@@ -40210,7 +40212,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="J24" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>240</v>
@@ -40247,7 +40249,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="J25" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>240</v>
@@ -40284,7 +40286,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="J26" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>240</v>
@@ -40321,7 +40323,7 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="J27" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>240</v>
@@ -40358,7 +40360,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="J28" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>240</v>
@@ -40395,7 +40397,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="J29" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>240</v>
@@ -40432,7 +40434,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="J30" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>240</v>
@@ -40469,7 +40471,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="J31" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>240</v>
@@ -40506,7 +40508,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="J32" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>240</v>
@@ -40543,7 +40545,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="J33" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>240</v>
@@ -40580,7 +40582,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="J34" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>240</v>
@@ -40617,7 +40619,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="J35" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>240</v>
@@ -40654,7 +40656,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="J36" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>240</v>
@@ -40691,7 +40693,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="J37" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>240</v>
@@ -40728,7 +40730,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>240</v>
@@ -40765,7 +40767,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="J39" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>240</v>
@@ -40801,7 +40803,7 @@
       </c>
       <c r="G40" s="19"/>
       <c r="J40" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>255</v>
@@ -40835,7 +40837,7 @@
       </c>
       <c r="G41" s="19"/>
       <c r="J41" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>255</v>
@@ -40869,7 +40871,7 @@
       </c>
       <c r="G42" s="19"/>
       <c r="J42" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>255</v>
@@ -40903,7 +40905,7 @@
       </c>
       <c r="G43" s="19"/>
       <c r="J43" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K43" s="19" t="s">
         <v>255</v>
@@ -40937,7 +40939,7 @@
       </c>
       <c r="G44" s="19"/>
       <c r="J44" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>255</v>
@@ -40971,7 +40973,7 @@
       </c>
       <c r="G45" s="19"/>
       <c r="J45" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>255</v>
@@ -41005,7 +41007,7 @@
       </c>
       <c r="G46" s="19"/>
       <c r="J46" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>255</v>
@@ -41039,7 +41041,7 @@
       </c>
       <c r="G47" s="19"/>
       <c r="J47" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K47" s="19" t="s">
         <v>255</v>
@@ -41073,7 +41075,7 @@
       </c>
       <c r="G48" s="19"/>
       <c r="J48" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>255</v>
@@ -41107,7 +41109,7 @@
       </c>
       <c r="G49" s="19"/>
       <c r="J49" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>255</v>
@@ -41141,7 +41143,7 @@
       </c>
       <c r="G50" s="19"/>
       <c r="J50" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>255</v>
@@ -41175,7 +41177,7 @@
       </c>
       <c r="G51" s="19"/>
       <c r="J51" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K51" s="19" t="s">
         <v>255</v>
@@ -41209,7 +41211,7 @@
       </c>
       <c r="G52" s="19"/>
       <c r="J52" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K52" s="19" t="s">
         <v>255</v>
@@ -41243,7 +41245,7 @@
       </c>
       <c r="G53" s="19"/>
       <c r="J53" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>255</v>
@@ -41277,7 +41279,7 @@
       </c>
       <c r="G54" s="19"/>
       <c r="J54" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K54" s="19" t="s">
         <v>20</v>
@@ -41312,7 +41314,7 @@
       </c>
       <c r="G55" s="19"/>
       <c r="J55" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K55" s="19" t="s">
         <v>20</v>
@@ -41347,7 +41349,7 @@
       </c>
       <c r="G56" s="19"/>
       <c r="J56" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K56" s="19" t="s">
         <v>20</v>
@@ -41383,7 +41385,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="J57" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K57" s="19" t="s">
         <v>20</v>
@@ -41419,7 +41421,7 @@
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="J58" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>20</v>
@@ -41455,7 +41457,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="J59" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K59" s="19" t="s">
         <v>20</v>
@@ -41490,7 +41492,7 @@
       </c>
       <c r="G60" s="19"/>
       <c r="J60" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K60" s="19" t="s">
         <v>20</v>
@@ -41525,7 +41527,7 @@
       </c>
       <c r="G61" s="19"/>
       <c r="J61" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K61" s="19" t="s">
         <v>20</v>
@@ -41560,7 +41562,7 @@
       </c>
       <c r="G62" s="19"/>
       <c r="J62" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>20</v>
@@ -41595,7 +41597,7 @@
       </c>
       <c r="G63" s="19"/>
       <c r="J63" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K63" s="19" t="s">
         <v>20</v>
@@ -41630,7 +41632,7 @@
       </c>
       <c r="G64" s="19"/>
       <c r="J64" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>20</v>
@@ -41665,7 +41667,7 @@
       </c>
       <c r="G65" s="19"/>
       <c r="J65" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>20</v>
@@ -41700,7 +41702,7 @@
       </c>
       <c r="G66" s="19"/>
       <c r="J66" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K66" s="19" t="s">
         <v>20</v>
@@ -41738,7 +41740,7 @@
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>20</v>
@@ -41776,7 +41778,7 @@
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>20</v>
@@ -41814,7 +41816,7 @@
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K69" s="23" t="s">
         <v>243</v>
@@ -41852,7 +41854,7 @@
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K70" s="23" t="s">
         <v>243</v>
@@ -41890,7 +41892,7 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K71" s="23" t="s">
         <v>243</v>
@@ -41928,7 +41930,7 @@
       <c r="H72" s="35"/>
       <c r="I72" s="23"/>
       <c r="J72" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K72" s="23" t="s">
         <v>243</v>
@@ -41966,7 +41968,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="23"/>
       <c r="J73" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K73" s="23" t="s">
         <v>243</v>
@@ -42004,7 +42006,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="23"/>
       <c r="J74" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K74" s="23" t="s">
         <v>243</v>
@@ -42042,7 +42044,7 @@
       <c r="H75" s="35"/>
       <c r="I75" s="23"/>
       <c r="J75" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K75" s="23" t="s">
         <v>243</v>
@@ -42080,7 +42082,7 @@
       <c r="H76" s="35"/>
       <c r="I76" s="23"/>
       <c r="J76" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K76" s="23" t="s">
         <v>243</v>
@@ -42118,7 +42120,7 @@
       <c r="H77" s="35"/>
       <c r="I77" s="23"/>
       <c r="J77" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K77" s="23" t="s">
         <v>243</v>
@@ -42156,7 +42158,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="23"/>
       <c r="J78" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K78" s="23" t="s">
         <v>243</v>
@@ -42194,7 +42196,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="23"/>
       <c r="J79" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K79" s="23" t="s">
         <v>243</v>
@@ -42232,7 +42234,7 @@
       <c r="H80" s="35"/>
       <c r="I80" s="23"/>
       <c r="J80" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K80" s="23" t="s">
         <v>243</v>
@@ -42284,7 +42286,7 @@
         <v>237</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>30</v>
@@ -42317,7 +42319,7 @@
         <v>239</v>
       </c>
       <c r="J83" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K83" s="19" t="s">
         <v>30</v>
@@ -42350,7 +42352,7 @@
         <v>237</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K84" s="19" t="s">
         <v>30</v>
@@ -42383,7 +42385,7 @@
         <v>239</v>
       </c>
       <c r="J85" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>30</v>
@@ -42416,7 +42418,7 @@
         <v>237</v>
       </c>
       <c r="J86" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K86" s="19" t="s">
         <v>30</v>
@@ -42449,7 +42451,7 @@
         <v>239</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K87" s="19" t="s">
         <v>30</v>
@@ -42482,7 +42484,7 @@
         <v>237</v>
       </c>
       <c r="J88" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K88" s="19" t="s">
         <v>30</v>
@@ -42515,7 +42517,7 @@
         <v>237</v>
       </c>
       <c r="J89" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K89" s="19" t="s">
         <v>30</v>
@@ -42548,7 +42550,7 @@
         <v>239</v>
       </c>
       <c r="J90" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>30</v>
@@ -42583,7 +42585,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="J91" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>255</v>
@@ -42620,7 +42622,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="J92" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K92" s="19" t="s">
         <v>255</v>
@@ -42657,7 +42659,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="J93" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>255</v>
@@ -42694,7 +42696,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="J94" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K94" s="19" t="s">
         <v>255</v>
@@ -42731,7 +42733,7 @@
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="J95" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K95" s="19" t="s">
         <v>255</v>
@@ -42768,7 +42770,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="J96" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>255</v>
@@ -42805,7 +42807,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="J97" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>255</v>
@@ -42842,7 +42844,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="J98" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>255</v>
@@ -42879,7 +42881,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="J99" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>255</v>
@@ -42916,7 +42918,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="J100" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>255</v>
@@ -42953,7 +42955,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="J101" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K101" s="19" t="s">
         <v>255</v>
@@ -42990,7 +42992,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="J102" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K102" s="19" t="s">
         <v>255</v>
@@ -43027,7 +43029,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="J103" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K103" s="19" t="s">
         <v>255</v>
@@ -43064,7 +43066,7 @@
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="J104" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K104" s="19" t="s">
         <v>255</v>
@@ -43102,7 +43104,7 @@
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
       <c r="J105" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K105" s="23" t="s">
         <v>243</v>
@@ -43138,7 +43140,7 @@
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K106" s="23" t="s">
         <v>243</v>
@@ -43174,7 +43176,7 @@
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
       <c r="J107" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K107" s="23" t="s">
         <v>243</v>
@@ -43210,7 +43212,7 @@
       <c r="H108" s="35"/>
       <c r="I108" s="23"/>
       <c r="J108" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K108" s="23" t="s">
         <v>243</v>
@@ -43246,7 +43248,7 @@
       <c r="H109" s="35"/>
       <c r="I109" s="23"/>
       <c r="J109" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K109" s="23" t="s">
         <v>243</v>
@@ -43282,7 +43284,7 @@
       <c r="H110" s="35"/>
       <c r="I110" s="23"/>
       <c r="J110" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K110" s="23" t="s">
         <v>243</v>
@@ -43318,7 +43320,7 @@
       <c r="H111" s="35"/>
       <c r="I111" s="23"/>
       <c r="J111" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K111" s="23" t="s">
         <v>243</v>
@@ -43354,7 +43356,7 @@
       <c r="H112" s="35"/>
       <c r="I112" s="23"/>
       <c r="J112" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K112" s="23" t="s">
         <v>243</v>
@@ -43390,7 +43392,7 @@
       <c r="H113" s="35"/>
       <c r="I113" s="23"/>
       <c r="J113" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K113" s="23" t="s">
         <v>243</v>
@@ -43426,7 +43428,7 @@
       <c r="H114" s="35"/>
       <c r="I114" s="23"/>
       <c r="J114" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K114" s="23" t="s">
         <v>243</v>
@@ -43462,7 +43464,7 @@
       <c r="H115" s="35"/>
       <c r="I115" s="23"/>
       <c r="J115" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K115" s="23" t="s">
         <v>243</v>
@@ -43498,7 +43500,7 @@
       <c r="H116" s="35"/>
       <c r="I116" s="23"/>
       <c r="J116" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K116" s="23" t="s">
         <v>243</v>
@@ -43548,7 +43550,7 @@
         <v>237</v>
       </c>
       <c r="J118" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K118" s="19" t="s">
         <v>33</v>
@@ -43581,7 +43583,7 @@
         <v>237</v>
       </c>
       <c r="J119" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K119" s="19" t="s">
         <v>33</v>
@@ -43614,7 +43616,7 @@
         <v>239</v>
       </c>
       <c r="J120" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K120" s="19" t="s">
         <v>33</v>
@@ -43647,7 +43649,7 @@
         <v>239</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>33</v>
@@ -43680,7 +43682,7 @@
         <v>237</v>
       </c>
       <c r="J122" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>33</v>
@@ -43713,7 +43715,7 @@
         <v>239</v>
       </c>
       <c r="J123" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>33</v>
@@ -43746,7 +43748,7 @@
         <v>237</v>
       </c>
       <c r="J124" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K124" s="19" t="s">
         <v>33</v>
@@ -43779,7 +43781,7 @@
         <v>237</v>
       </c>
       <c r="J125" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K125" s="19" t="s">
         <v>33</v>
@@ -43812,7 +43814,7 @@
         <v>239</v>
       </c>
       <c r="J126" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>33</v>
@@ -43845,7 +43847,7 @@
         <v>239</v>
       </c>
       <c r="J127" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>33</v>
@@ -43878,7 +43880,7 @@
         <v>237</v>
       </c>
       <c r="J128" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>33</v>
@@ -43911,7 +43913,7 @@
         <v>237</v>
       </c>
       <c r="J129" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>33</v>
@@ -43944,7 +43946,7 @@
         <v>237</v>
       </c>
       <c r="J130" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>33</v>
@@ -43977,7 +43979,7 @@
         <v>237</v>
       </c>
       <c r="J131" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K131" s="19" t="s">
         <v>33</v>
@@ -44010,7 +44012,7 @@
         <v>239</v>
       </c>
       <c r="J132" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K132" s="19" t="s">
         <v>33</v>
@@ -44043,7 +44045,7 @@
         <v>239</v>
       </c>
       <c r="J133" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K133" s="19" t="s">
         <v>33</v>
@@ -44076,7 +44078,7 @@
         <v>239</v>
       </c>
       <c r="J134" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K134" s="19" t="s">
         <v>33</v>
@@ -44109,7 +44111,7 @@
         <v>239</v>
       </c>
       <c r="J135" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K135" s="19" t="s">
         <v>33</v>
@@ -44142,7 +44144,7 @@
         <v>239</v>
       </c>
       <c r="J136" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K136" s="19" t="s">
         <v>33</v>
@@ -44175,7 +44177,7 @@
         <v>237</v>
       </c>
       <c r="J137" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>33</v>
@@ -44208,7 +44210,7 @@
         <v>237</v>
       </c>
       <c r="J138" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>33</v>
@@ -44241,7 +44243,7 @@
         <v>239</v>
       </c>
       <c r="J139" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>33</v>
@@ -44276,7 +44278,7 @@
       <c r="G140" s="19"/>
       <c r="H140" s="19"/>
       <c r="J140" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>235</v>
@@ -44311,7 +44313,7 @@
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
       <c r="J141" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>235</v>
@@ -44346,7 +44348,7 @@
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
       <c r="J142" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>235</v>
@@ -44381,7 +44383,7 @@
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
       <c r="J143" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>235</v>
@@ -44416,7 +44418,7 @@
       <c r="G144" s="19"/>
       <c r="H144" s="19"/>
       <c r="J144" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>235</v>
@@ -44451,7 +44453,7 @@
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
       <c r="J145" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>235</v>
@@ -44486,7 +44488,7 @@
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
       <c r="J146" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>235</v>
@@ -44521,7 +44523,7 @@
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
       <c r="J147" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>235</v>
@@ -44556,7 +44558,7 @@
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
       <c r="J148" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>235</v>
@@ -44591,7 +44593,7 @@
       <c r="G149" s="19"/>
       <c r="H149" s="19"/>
       <c r="J149" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>235</v>
@@ -44626,7 +44628,7 @@
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
       <c r="J150" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K150" s="19" t="s">
         <v>235</v>
@@ -44661,7 +44663,7 @@
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
       <c r="J151" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K151" s="19" t="s">
         <v>235</v>
@@ -44696,7 +44698,7 @@
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
       <c r="J152" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K152" s="19" t="s">
         <v>235</v>
@@ -44731,7 +44733,7 @@
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
       <c r="J153" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K153" s="19" t="s">
         <v>235</v>
@@ -44766,7 +44768,7 @@
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
       <c r="J154" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>235</v>
@@ -44801,7 +44803,7 @@
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
       <c r="J155" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>235</v>
@@ -44836,7 +44838,7 @@
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
       <c r="J156" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>235</v>
@@ -44871,7 +44873,7 @@
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
       <c r="J157" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>235</v>
@@ -44906,7 +44908,7 @@
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
       <c r="J158" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>240</v>
@@ -44941,7 +44943,7 @@
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
       <c r="J159" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K159" s="19" t="s">
         <v>240</v>
@@ -44976,7 +44978,7 @@
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
       <c r="J160" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K160" s="19" t="s">
         <v>240</v>
@@ -45011,7 +45013,7 @@
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
       <c r="J161" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K161" s="19" t="s">
         <v>240</v>
@@ -45046,7 +45048,7 @@
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
       <c r="J162" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K162" s="19" t="s">
         <v>240</v>
@@ -45081,7 +45083,7 @@
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
       <c r="J163" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K163" s="19" t="s">
         <v>240</v>
@@ -45116,7 +45118,7 @@
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
       <c r="J164" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>240</v>
@@ -45151,7 +45153,7 @@
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
       <c r="J165" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>240</v>
@@ -45186,7 +45188,7 @@
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
       <c r="J166" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K166" s="19" t="s">
         <v>240</v>
@@ -45221,7 +45223,7 @@
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
       <c r="J167" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K167" s="19" t="s">
         <v>240</v>
@@ -45256,7 +45258,7 @@
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
       <c r="J168" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>240</v>
@@ -45291,7 +45293,7 @@
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
       <c r="J169" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K169" s="19" t="s">
         <v>240</v>
@@ -45326,7 +45328,7 @@
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
       <c r="J170" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K170" s="19" t="s">
         <v>240</v>
@@ -45361,7 +45363,7 @@
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
       <c r="J171" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K171" s="19" t="s">
         <v>240</v>
@@ -45396,7 +45398,7 @@
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
       <c r="J172" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K172" s="19" t="s">
         <v>240</v>
@@ -45431,7 +45433,7 @@
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
       <c r="J173" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K173" s="19" t="s">
         <v>240</v>
@@ -45466,7 +45468,7 @@
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
       <c r="J174" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K174" s="19" t="s">
         <v>240</v>
@@ -45501,7 +45503,7 @@
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
       <c r="J175" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K175" s="19" t="s">
         <v>240</v>
@@ -45534,7 +45536,7 @@
         <v>237</v>
       </c>
       <c r="J176" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K176" s="19" t="s">
         <v>255</v>
@@ -45567,7 +45569,7 @@
         <v>237</v>
       </c>
       <c r="J177" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K177" s="19" t="s">
         <v>255</v>
@@ -45600,7 +45602,7 @@
         <v>237</v>
       </c>
       <c r="J178" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K178" s="19" t="s">
         <v>255</v>
@@ -45633,7 +45635,7 @@
         <v>239</v>
       </c>
       <c r="J179" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K179" s="19" t="s">
         <v>255</v>
@@ -45666,7 +45668,7 @@
         <v>237</v>
       </c>
       <c r="J180" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K180" s="19" t="s">
         <v>255</v>
@@ -45699,7 +45701,7 @@
         <v>239</v>
       </c>
       <c r="J181" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K181" s="19" t="s">
         <v>255</v>
@@ -45732,7 +45734,7 @@
         <v>239</v>
       </c>
       <c r="J182" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K182" s="19" t="s">
         <v>255</v>
@@ -45765,7 +45767,7 @@
         <v>239</v>
       </c>
       <c r="J183" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K183" s="19" t="s">
         <v>255</v>
@@ -45798,7 +45800,7 @@
         <v>239</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K184" s="19" t="s">
         <v>255</v>
@@ -45831,7 +45833,7 @@
         <v>239</v>
       </c>
       <c r="J185" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K185" s="19" t="s">
         <v>255</v>
@@ -45864,7 +45866,7 @@
         <v>239</v>
       </c>
       <c r="J186" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K186" s="19" t="s">
         <v>255</v>
@@ -45897,7 +45899,7 @@
         <v>239</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K187" s="19" t="s">
         <v>255</v>
@@ -45930,7 +45932,7 @@
         <v>239</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K188" s="19" t="s">
         <v>255</v>
@@ -45963,7 +45965,7 @@
         <v>239</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K189" s="19" t="s">
         <v>255</v>
@@ -45999,7 +46001,7 @@
       <c r="H190" s="23"/>
       <c r="I190" s="23"/>
       <c r="J190" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K190" s="23" t="s">
         <v>243</v>
@@ -46035,7 +46037,7 @@
       <c r="H191" s="23"/>
       <c r="I191" s="23"/>
       <c r="J191" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K191" s="23" t="s">
         <v>243</v>
@@ -46071,7 +46073,7 @@
       <c r="H192" s="23"/>
       <c r="I192" s="23"/>
       <c r="J192" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K192" s="23" t="s">
         <v>243</v>
@@ -46107,7 +46109,7 @@
       <c r="H193" s="35"/>
       <c r="I193" s="23"/>
       <c r="J193" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K193" s="23" t="s">
         <v>243</v>
@@ -46143,7 +46145,7 @@
       <c r="H194" s="35"/>
       <c r="I194" s="23"/>
       <c r="J194" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K194" s="23" t="s">
         <v>243</v>
@@ -46179,7 +46181,7 @@
       <c r="H195" s="35"/>
       <c r="I195" s="23"/>
       <c r="J195" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K195" s="23" t="s">
         <v>243</v>
@@ -46215,7 +46217,7 @@
       <c r="H196" s="35"/>
       <c r="I196" s="23"/>
       <c r="J196" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K196" s="23" t="s">
         <v>243</v>
@@ -46251,7 +46253,7 @@
       <c r="H197" s="35"/>
       <c r="I197" s="23"/>
       <c r="J197" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K197" s="23" t="s">
         <v>243</v>
@@ -46287,7 +46289,7 @@
       <c r="H198" s="35"/>
       <c r="I198" s="23"/>
       <c r="J198" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K198" s="23" t="s">
         <v>243</v>
@@ -46323,7 +46325,7 @@
       <c r="H199" s="35"/>
       <c r="I199" s="23"/>
       <c r="J199" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K199" s="23" t="s">
         <v>243</v>
@@ -46359,7 +46361,7 @@
       <c r="H200" s="35"/>
       <c r="I200" s="23"/>
       <c r="J200" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K200" s="23" t="s">
         <v>243</v>
@@ -46395,7 +46397,7 @@
       <c r="H201" s="35"/>
       <c r="I201" s="23"/>
       <c r="J201" s="28" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="K201" s="23" t="s">
         <v>243</v>
